--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_14_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_14_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1828873.770549102</v>
+        <v>1824778.129044337</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283181</v>
+        <v>416855.1052283183</v>
       </c>
     </row>
     <row r="9">
@@ -661,10 +661,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -676,10 +676,10 @@
         <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>16.398809267224</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -715,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>92.69857209001844</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -834,7 +834,7 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -864,16 +864,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>144.8586974472227</v>
+        <v>26.30660220273234</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>47.44008375874333</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>8.704110250542364</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -952,16 +952,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1053,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>126.8388999081567</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1065,16 +1065,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>111.5109739231595</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1113,16 +1113,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1135,25 +1135,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>261.8755095217016</v>
+        <v>402.7109894457936</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1189,16 +1189,16 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1232,7 +1232,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1290,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>71.67037196991754</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>55.42986125998489</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1356,10 +1356,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>8.57972659686251</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1539,16 +1539,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>51.3656974031041</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238249</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1621,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187879</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,19 +1815,19 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>106.9977768135395</v>
       </c>
       <c r="W16" t="n">
-        <v>172.3645574474263</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1846,7 +1846,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710084</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2007,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2058,13 +2058,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>245.879692121444</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634816</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2247,19 +2247,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>59.66990246485254</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>216.4795114578124</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695524</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>117.2708639270857</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2484,16 +2484,16 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428298</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012163</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2538,7 +2538,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2724,13 +2724,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,25 +2760,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>152.0854776630161</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>220.428933139112</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2860,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2949,19 +2949,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>144.4286493356922</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>147.6895341487364</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3006,7 +3006,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3094,7 +3094,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3192,10 +3192,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3204,10 +3204,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3243,13 +3243,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>139.1630968205466</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569541</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3426,7 +3426,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -3435,16 +3435,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>141.501781020667</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,22 +3471,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>139.1630968205461</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3666,19 +3666,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>107.4021082756242</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>168.4805514670949</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3796,7 +3796,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3906,19 +3906,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>21.69718571885219</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3951,7 +3951,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053464</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3960,7 +3960,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4134,25 +4134,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>113.5262552810684</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1236.203140240072</v>
+        <v>1329.838061543122</v>
       </c>
       <c r="C2" t="n">
-        <v>1236.203140240072</v>
+        <v>960.8755446027101</v>
       </c>
       <c r="D2" t="n">
-        <v>877.9374416333219</v>
+        <v>960.8755446027101</v>
       </c>
       <c r="E2" t="n">
-        <v>877.9374416333219</v>
+        <v>960.8755446027101</v>
       </c>
       <c r="F2" t="n">
-        <v>466.9515368437143</v>
+        <v>549.8896398131026</v>
       </c>
       <c r="G2" t="n">
-        <v>51.24678656800311</v>
+        <v>134.1848895373914</v>
       </c>
       <c r="H2" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4363,19 +4363,19 @@
         <v>2437.640120926626</v>
       </c>
       <c r="U2" t="n">
-        <v>2344.005199623577</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="V2" t="n">
-        <v>2012.942312280006</v>
+        <v>2106.577233583055</v>
       </c>
       <c r="W2" t="n">
-        <v>2012.942312280006</v>
+        <v>2106.577233583055</v>
       </c>
       <c r="X2" t="n">
-        <v>2012.942312280006</v>
+        <v>2106.577233583055</v>
       </c>
       <c r="Y2" t="n">
-        <v>1622.802980304194</v>
+        <v>1716.437901607243</v>
       </c>
     </row>
     <row r="3">
@@ -4385,52 +4385,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057898</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310613</v>
+        <v>590.2049751143493</v>
       </c>
       <c r="L3" t="n">
-        <v>593.0223835625329</v>
+        <v>884.9085321458211</v>
       </c>
       <c r="M3" t="n">
-        <v>1178.376567084329</v>
+        <v>1248.170551105041</v>
       </c>
       <c r="N3" t="n">
-        <v>1565.661695681274</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O3" t="n">
-        <v>2199.840679460312</v>
+        <v>1967.526114878149</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.023413292609</v>
+        <v>2214.708848710446</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4442,16 +4442,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4482,58 +4482,58 @@
         <v>305.8408313751036</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386098</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="I4" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312202</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T4" t="n">
-        <v>1636.446120074497</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U4" t="n">
-        <v>1490.124203461141</v>
+        <v>1087.683159487371</v>
       </c>
       <c r="V4" t="n">
-        <v>1490.124203461141</v>
+        <v>1087.683159487371</v>
       </c>
       <c r="W4" t="n">
-        <v>1490.124203461141</v>
+        <v>1087.683159487371</v>
       </c>
       <c r="X4" t="n">
-        <v>1490.124203461141</v>
+        <v>1087.683159487371</v>
       </c>
       <c r="Y4" t="n">
-        <v>1269.331624317611</v>
+        <v>1087.683159487371</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2051.040280862502</v>
+        <v>1126.761759316041</v>
       </c>
       <c r="C5" t="n">
-        <v>1682.077763922091</v>
+        <v>1126.761759316041</v>
       </c>
       <c r="D5" t="n">
-        <v>1634.158487398107</v>
+        <v>768.496060709291</v>
       </c>
       <c r="E5" t="n">
-        <v>1248.370234799863</v>
+        <v>382.7078081110467</v>
       </c>
       <c r="F5" t="n">
-        <v>837.3843300102556</v>
+        <v>375.7623073618433</v>
       </c>
       <c r="G5" t="n">
-        <v>421.6795797345444</v>
+        <v>364.0979611265362</v>
       </c>
       <c r="H5" t="n">
-        <v>117.6204357321147</v>
+        <v>60.03881712410652</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800308</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362815</v>
+        <v>187.5281822362818</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816079</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230816</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.228484740839</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764996</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.250581723849</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400154</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926624</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2437.640120926624</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U5" t="n">
-        <v>2437.640120926624</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="V5" t="n">
-        <v>2437.640120926624</v>
+        <v>1852.996172847235</v>
       </c>
       <c r="W5" t="n">
-        <v>2437.640120926624</v>
+        <v>1500.227517577121</v>
       </c>
       <c r="X5" t="n">
-        <v>2437.640120926624</v>
+        <v>1126.761759316041</v>
       </c>
       <c r="Y5" t="n">
-        <v>2437.640120926624</v>
+        <v>1126.761759316041</v>
       </c>
     </row>
     <row r="6">
@@ -4643,28 +4643,28 @@
         <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800308</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>298.3188265310612</v>
+        <v>590.2049751143488</v>
       </c>
       <c r="L6" t="n">
-        <v>593.0223835625329</v>
+        <v>884.9085321458207</v>
       </c>
       <c r="M6" t="n">
-        <v>1209.253210781439</v>
+        <v>1248.170551105041</v>
       </c>
       <c r="N6" t="n">
-        <v>1843.432194560477</v>
+        <v>1635.455679701986</v>
       </c>
       <c r="O6" t="n">
-        <v>2175.502629736639</v>
+        <v>1967.526114878148</v>
       </c>
       <c r="P6" t="n">
-        <v>2422.685363568936</v>
+        <v>2214.708848710445</v>
       </c>
       <c r="Q6" t="n">
         <v>2538.001278676482</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>919.6966947956497</v>
+        <v>461.9138669598628</v>
       </c>
       <c r="C7" t="n">
-        <v>750.7605118677428</v>
+        <v>461.9138669598628</v>
       </c>
       <c r="D7" t="n">
-        <v>600.6438724554071</v>
+        <v>311.7972275475271</v>
       </c>
       <c r="E7" t="n">
-        <v>452.7307788730139</v>
+        <v>163.884133965134</v>
       </c>
       <c r="F7" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="G7" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386097</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800308</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312195</v>
+        <v>76.71595955312202</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="S7" t="n">
-        <v>1337.23396574994</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="T7" t="n">
-        <v>1337.23396574994</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="U7" t="n">
-        <v>1337.23396574994</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="V7" t="n">
-        <v>1337.23396574994</v>
+        <v>1381.761631868611</v>
       </c>
       <c r="W7" t="n">
-        <v>1047.81679571298</v>
+        <v>1092.34446183165</v>
       </c>
       <c r="X7" t="n">
-        <v>1047.81679571298</v>
+        <v>864.3549109336327</v>
       </c>
       <c r="Y7" t="n">
-        <v>1047.81679571298</v>
+        <v>643.5623317901026</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1528.069587875905</v>
+        <v>1295.236214140707</v>
       </c>
       <c r="C8" t="n">
-        <v>1528.069587875905</v>
+        <v>926.2736972002956</v>
       </c>
       <c r="D8" t="n">
-        <v>1169.803889269154</v>
+        <v>926.2736972002956</v>
       </c>
       <c r="E8" t="n">
-        <v>784.0156366709098</v>
+        <v>926.2736972002956</v>
       </c>
       <c r="F8" t="n">
-        <v>373.0297318813022</v>
+        <v>515.2877924106881</v>
       </c>
       <c r="G8" t="n">
         <v>108.5090151927147</v>
@@ -4801,13 +4801,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J8" t="n">
         <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329465</v>
@@ -4819,37 +4819,37 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T8" t="n">
         <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520489</v>
+        <v>2755.806928794326</v>
       </c>
       <c r="V8" t="n">
-        <v>2678.274518176918</v>
+        <v>2424.744041450755</v>
       </c>
       <c r="W8" t="n">
-        <v>2678.274518176918</v>
+        <v>2071.975386180641</v>
       </c>
       <c r="X8" t="n">
-        <v>2304.808759915838</v>
+        <v>2071.975386180641</v>
       </c>
       <c r="Y8" t="n">
-        <v>1914.669427940026</v>
+        <v>1681.836054204829</v>
       </c>
     </row>
     <row r="9">
@@ -4859,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927784</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064586</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
@@ -4889,46 +4889,46 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4938,43 +4938,43 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>624.6477645191717</v>
+        <v>752.7622949738584</v>
       </c>
       <c r="C10" t="n">
-        <v>624.6477645191717</v>
+        <v>583.8261120459515</v>
       </c>
       <c r="D10" t="n">
-        <v>624.6477645191717</v>
+        <v>433.7094726336157</v>
       </c>
       <c r="E10" t="n">
-        <v>624.6477645191717</v>
+        <v>285.7963790512226</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>138.9064315533123</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1871.304789240023</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1679.618905066849</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1457.852289636376</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1168.749422762019</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>914.0649345561324</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W10" t="n">
-        <v>624.6477645191717</v>
+        <v>1383.192889845646</v>
       </c>
       <c r="X10" t="n">
-        <v>624.6477645191717</v>
+        <v>1155.203338947628</v>
       </c>
       <c r="Y10" t="n">
-        <v>624.6477645191717</v>
+        <v>934.4107598040981</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5029,28 +5029,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355938</v>
@@ -5062,19 +5062,19 @@
         <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5114,25 +5114,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756267</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="K12" t="n">
-        <v>280.8495004245697</v>
+        <v>429.5088224239598</v>
       </c>
       <c r="L12" t="n">
-        <v>776.1751066403286</v>
+        <v>924.8344286397187</v>
       </c>
       <c r="M12" t="n">
-        <v>1373.553594266881</v>
+        <v>1522.212916266271</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>2149.810879820878</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>983.3556038098246</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C13" t="n">
-        <v>814.4194208819177</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D13" t="n">
-        <v>664.302781469582</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E13" t="n">
-        <v>516.3896878871889</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F13" t="n">
-        <v>369.4997403892785</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
@@ -5223,28 +5223,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="T13" t="n">
-        <v>2446.963083580261</v>
+        <v>2160.315914855605</v>
       </c>
       <c r="U13" t="n">
-        <v>2157.887856924459</v>
+        <v>1871.240688199803</v>
       </c>
       <c r="V13" t="n">
-        <v>1903.203368718572</v>
+        <v>1616.556199993919</v>
       </c>
       <c r="W13" t="n">
-        <v>1613.786198681612</v>
+        <v>1327.139029956958</v>
       </c>
       <c r="X13" t="n">
-        <v>1385.796647783594</v>
+        <v>1099.149479058941</v>
       </c>
       <c r="Y13" t="n">
-        <v>1165.004068640064</v>
+        <v>878.356899915411</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168625</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,28 +5351,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756267</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468473</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782958</v>
@@ -5445,7 +5445,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
         <v>1665.560112570818</v>
@@ -5454,7 +5454,7 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.963083580261</v>
@@ -5463,25 +5463,25 @@
         <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.963083580261</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>2446.963083580261</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>2157.887856924459</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V16" t="n">
-        <v>1903.203368718572</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W16" t="n">
-        <v>1729.097755135313</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="17">
@@ -5497,19 +5497,19 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
@@ -5518,7 +5518,7 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5527,37 +5527,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,25 +5588,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468473</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1977.461080510509</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1977.461080510509</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5731,7 +5731,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5740,64 +5740,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192608</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,28 +5825,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756267</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756267</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>352.5519571452603</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>949.9304447718124</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.528408326419</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>991.7436897307826</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C22" t="n">
-        <v>822.8075068028758</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D22" t="n">
-        <v>672.69086739054</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E22" t="n">
-        <v>524.7777738081469</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
-        <v>377.8878263102365</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
         <v>317.6151975578602</v>
@@ -5907,55 +5907,55 @@
         <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2227.361618603202</v>
+        <v>1978.396372297858</v>
       </c>
       <c r="U22" t="n">
-        <v>1938.2863919474</v>
+        <v>1978.396372297858</v>
       </c>
       <c r="V22" t="n">
-        <v>1683.601903741513</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W22" t="n">
-        <v>1394.184733704552</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X22" t="n">
-        <v>1394.184733704552</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y22" t="n">
-        <v>1173.392154561022</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004715</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406471</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168629</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362692</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797191</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192512</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311171</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075806</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,25 +6062,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756267</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468476</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962607</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589159</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143766</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400726</v>
+        <v>866.4638174991043</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121657</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121657</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121657</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121657</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270456</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487569</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.46108051051</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.28419561186</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138424</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703123</v>
+        <v>984.9192356072716</v>
       </c>
     </row>
     <row r="26">
@@ -6214,61 +6214,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,25 +6299,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>869.6905094135296</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C28" t="n">
-        <v>700.7543264856228</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D28" t="n">
-        <v>550.637687073287</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908938</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>2110.486554626058</v>
       </c>
       <c r="U28" t="n">
-        <v>1977.461080510509</v>
+        <v>1821.411327970255</v>
       </c>
       <c r="V28" t="n">
-        <v>1722.776592304622</v>
+        <v>1566.726839764368</v>
       </c>
       <c r="W28" t="n">
-        <v>1500.121104285317</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="X28" t="n">
-        <v>1272.131553387299</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y28" t="n">
-        <v>1051.338974243769</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="29">
@@ -6454,25 +6454,25 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355937</v>
@@ -6539,31 +6539,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>680.0291294438171</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>549.6145409888042</v>
+        <v>802.9288273958734</v>
       </c>
       <c r="C31" t="n">
-        <v>549.6145409888042</v>
+        <v>633.9926444679666</v>
       </c>
       <c r="D31" t="n">
-        <v>549.6145409888042</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E31" t="n">
-        <v>549.6145409888042</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138415</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703114</v>
+        <v>984.5772922261132</v>
       </c>
     </row>
     <row r="32">
@@ -6691,25 +6691,25 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355937</v>
@@ -6742,7 +6742,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6782,25 +6782,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>506.2737913123336</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1103.652278938886</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1731.250242493492</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>951.7772127656159</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>782.841029837709</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>632.7243904253733</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1836.89229584329</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1582.207807637403</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1582.207807637403</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1354.218256739386</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1133.425677595856</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6928,22 +6928,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014778</v>
@@ -6952,13 +6952,13 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7010,25 +7010,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>763.7541388327652</v>
+        <v>951.7772127656159</v>
       </c>
       <c r="C37" t="n">
-        <v>763.7541388327652</v>
+        <v>782.841029837709</v>
       </c>
       <c r="D37" t="n">
-        <v>613.6374994204294</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E37" t="n">
-        <v>465.7244058380363</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F37" t="n">
-        <v>318.8344583401259</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G37" t="n">
-        <v>175.9033664000582</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
         <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1938.2863919474</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V37" t="n">
-        <v>1683.601903741513</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W37" t="n">
-        <v>1394.184733704552</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="X37" t="n">
-        <v>1166.195182806535</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y37" t="n">
-        <v>945.4026036630049</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="38">
@@ -7153,7 +7153,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7162,22 +7162,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7192,31 +7192,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,34 +7247,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1336.167399417937</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1336.167399417937</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>1888.077129657224</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2311.700279152293</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2544.961939527175</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>983.3556038098242</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>814.4194208819173</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>664.3027814695815</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>516.3896878871884</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>369.499740389278</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>202.303641104158</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2446.963083580261</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>2157.887856924459</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1903.203368718572</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1385.796647783594</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>1165.004068640064</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7408,52 +7408,52 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311171</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7484,34 +7484,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438171</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>803.2707707770323</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>634.3345878491255</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D43" t="n">
-        <v>634.3345878491255</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E43" t="n">
-        <v>486.4214942667323</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F43" t="n">
-        <v>339.531546768822</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782958</v>
@@ -7599,22 +7599,22 @@
         <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1433.70136564882</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>1205.711814750802</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>984.9192356072721</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7639,22 +7639,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
         <v>2206.558663014778</v>
@@ -7684,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7712,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7721,34 +7721,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1670.092171589158</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2222.001901828445</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>868.6673633290468</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>699.7311804011399</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>549.6145409888042</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>549.6145409888042</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>983.3403484614391</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8057,31 +8057,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>168.7434581780637</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>224.3355197601779</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>305.1601501039159</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154991</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8294,19 +8294,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>168.7434581780633</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>255.5240487471577</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>249.3877325071646</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -8315,7 +8315,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>171.2522535850748</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23427,16 +23427,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>114.1584408891648</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,22 +23700,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>145.1398665102885</v>
       </c>
       <c r="W16" t="n">
-        <v>114.1584408891647</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23946,13 +23946,13 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>40.64330621514705</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24135,13 +24135,13 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>105.8542358274163</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>0.925938869475857</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>62.56111625485163</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24372,19 +24372,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194088</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24426,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24612,16 +24612,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,25 +24648,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>65.31997266427217</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>66.09406519747904</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24837,19 +24837,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>35.40333084624513</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0.9259388694759139</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24894,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25080,10 +25080,10 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25131,13 +25131,13 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>147.0213775686976</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25314,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25323,13 +25323,13 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>24.02235727160183</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25359,22 +25359,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>147.3599015160449</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>32.89260457059964</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>57.22910392194225</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25794,19 +25794,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>143.8269525734167</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25839,7 +25839,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>57.22910392194191</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25848,7 +25848,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>66.30572490086888</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>876221.8101769292</v>
+        <v>876221.8101769291</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>876221.8101769292</v>
+        <v>876221.8101769291</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>876221.8101769292</v>
+        <v>876221.8101769291</v>
       </c>
     </row>
     <row r="9">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>876221.8101769292</v>
+        <v>876221.8101769291</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>876221.8101769292</v>
+        <v>876221.8101769291</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>876221.8101769292</v>
+        <v>876221.8101769291</v>
       </c>
     </row>
     <row r="15">
@@ -26316,46 +26316,46 @@
         <v>554203.1946583915</v>
       </c>
       <c r="C2" t="n">
-        <v>554203.1946583913</v>
+        <v>554203.1946583912</v>
       </c>
       <c r="D2" t="n">
         <v>554203.1946583915</v>
       </c>
       <c r="E2" t="n">
+        <v>544823.954790754</v>
+      </c>
+      <c r="F2" t="n">
+        <v>544823.9547907542</v>
+      </c>
+      <c r="G2" t="n">
+        <v>544823.9547907538</v>
+      </c>
+      <c r="H2" t="n">
+        <v>544823.9547907539</v>
+      </c>
+      <c r="I2" t="n">
+        <v>544823.9547907538</v>
+      </c>
+      <c r="J2" t="n">
+        <v>544823.9547907541</v>
+      </c>
+      <c r="K2" t="n">
+        <v>544823.954790754</v>
+      </c>
+      <c r="L2" t="n">
+        <v>544823.9547907538</v>
+      </c>
+      <c r="M2" t="n">
+        <v>544823.9547907542</v>
+      </c>
+      <c r="N2" t="n">
+        <v>544823.9547907539</v>
+      </c>
+      <c r="O2" t="n">
         <v>544823.9547907544</v>
       </c>
-      <c r="F2" t="n">
-        <v>544823.9547907545</v>
-      </c>
-      <c r="G2" t="n">
-        <v>544823.9547907545</v>
-      </c>
-      <c r="H2" t="n">
-        <v>544823.9547907541</v>
-      </c>
-      <c r="I2" t="n">
-        <v>544823.9547907541</v>
-      </c>
-      <c r="J2" t="n">
-        <v>544823.954790754</v>
-      </c>
-      <c r="K2" t="n">
-        <v>544823.9547907539</v>
-      </c>
-      <c r="L2" t="n">
-        <v>544823.9547907541</v>
-      </c>
-      <c r="M2" t="n">
-        <v>544823.954790754</v>
-      </c>
-      <c r="N2" t="n">
-        <v>544823.954790754</v>
-      </c>
-      <c r="O2" t="n">
-        <v>544823.9547907541</v>
-      </c>
       <c r="P2" t="n">
-        <v>544823.954790754</v>
+        <v>544823.9547907538</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403381</v>
+        <v>192627.1404403379</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073556</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,22 +26389,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099822</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819086</v>
+        <v>48293.9700081908</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.0279355119</v>
+        <v>85055.02793551172</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.540129233035259e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26420,46 +26420,46 @@
         <v>136726.2736921025</v>
       </c>
       <c r="C4" t="n">
-        <v>136726.2736921026</v>
+        <v>136726.2736921025</v>
       </c>
       <c r="D4" t="n">
-        <v>88524.23512810783</v>
+        <v>88524.2351281078</v>
       </c>
       <c r="E4" t="n">
         <v>9337.200356756592</v>
       </c>
       <c r="F4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="G4" t="n">
-        <v>9337.200356756552</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="H4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="I4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="J4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="K4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="L4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="M4" t="n">
+        <v>9337.200356756644</v>
+      </c>
+      <c r="N4" t="n">
         <v>9337.20035675659</v>
-      </c>
-      <c r="N4" t="n">
-        <v>9337.200356756592</v>
       </c>
       <c r="O4" t="n">
         <v>9337.200356756592</v>
       </c>
       <c r="P4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
     </row>
     <row r="5">
@@ -26469,28 +26469,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.77243984469</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
       </c>
       <c r="H5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="I5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="J5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-790212.6350494751</v>
+        <v>-790212.6350494756</v>
       </c>
       <c r="C6" t="n">
         <v>324539.148526444</v>
       </c>
       <c r="D6" t="n">
-        <v>165117.8785285523</v>
+        <v>165117.8785285524</v>
       </c>
       <c r="E6" t="n">
-        <v>108951.762802735</v>
+        <v>108604.3835483781</v>
       </c>
       <c r="F6" t="n">
-        <v>434364.2246100907</v>
+        <v>434016.8453557338</v>
       </c>
       <c r="G6" t="n">
-        <v>434364.2246100908</v>
+        <v>434016.8453557334</v>
       </c>
       <c r="H6" t="n">
-        <v>434364.2246100904</v>
+        <v>434016.8453557332</v>
       </c>
       <c r="I6" t="n">
-        <v>434364.2246100904</v>
+        <v>434016.8453557331</v>
       </c>
       <c r="J6" t="n">
-        <v>266759.0468001082</v>
+        <v>266411.6675457509</v>
       </c>
       <c r="K6" t="n">
-        <v>434364.2246100902</v>
+        <v>434016.8453557334</v>
       </c>
       <c r="L6" t="n">
-        <v>386070.2546018996</v>
+        <v>385722.8753475423</v>
       </c>
       <c r="M6" t="n">
-        <v>349309.1966745784</v>
+        <v>348961.8174202219</v>
       </c>
       <c r="N6" t="n">
-        <v>434364.2246100903</v>
+        <v>434016.8453557332</v>
       </c>
       <c r="O6" t="n">
-        <v>434364.2246100904</v>
+        <v>434016.8453557336</v>
       </c>
       <c r="P6" t="n">
-        <v>434364.2246100903</v>
+        <v>434016.8453557332</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26792,28 +26792,28 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000385</v>
+        <v>640.584832100039</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26825,13 +26825,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.7118084757592</v>
+        <v>155.7118084757591</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483759</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26998,7 +26998,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27017,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022544</v>
+        <v>190.8166233022541</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000386</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022544</v>
+        <v>190.8166233022541</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27263,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022544</v>
+        <v>190.8166233022541</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,10 +27381,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27396,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>284.6197432951814</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27435,7 +27435,7 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>158.3466780384436</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27584,16 +27584,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>141.3684566739779</v>
+        <v>259.9205519184683</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>307.2429578619396</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>57.00580242192807</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27672,16 +27672,16 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27773,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>52.99308027378062</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27785,16 +27785,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>33.91007409977171</v>
       </c>
       <c r="G7" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,10 +27821,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
         <v>220.7486959972119</v>
@@ -27833,16 +27833,16 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27855,19 +27855,19 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>149.0462161317518</v>
+        <v>8.210736207659806</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -27909,16 +27909,16 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>94.35543628911068</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,16 +28058,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>33.50229141006244</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28076,10 +28076,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28140,7 +28140,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>-9.379164112033322e-13</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -28307,7 +28307,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>3.110756097157719e-12</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -30036,7 +30036,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31205,25 +31205,25 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L4" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31232,16 +31232,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31442,25 +31442,25 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L7" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31469,16 +31469,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31524,40 +31524,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31676,43 +31676,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31837,13 +31837,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>175.6052721551095</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473074</v>
@@ -31855,7 +31855,7 @@
         <v>765.2790490071787</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437245</v>
+        <v>549.9198891312094</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31989,40 +31989,40 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
         <v>125.3175546292901</v>
@@ -32031,7 +32031,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32074,28 +32074,28 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>595.3275373121701</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32104,7 +32104,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
@@ -32147,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796262</v>
@@ -32171,7 +32171,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
@@ -32183,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,31 +32305,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565758</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,34 +32542,34 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>248.7449369209182</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437245</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348436</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135343</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663285</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817579</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162565</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.646344017568</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159431</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460033</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236512</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
-        <v>24.07361910651529</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078748</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,31 +32779,31 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659451</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521102</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420756</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422588</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473075</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862125</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071789</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>400.5469039565744</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742441</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588155</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392047</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.493960610679</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P25" t="n">
-        <v>298.3532140417316</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
-        <v>110.9181446670479</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
-        <v>10.54013910099323</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
         <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,31 +33016,31 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>579.5299594447131</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33502,37 +33502,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>404.0195168876591</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,31 +33727,31 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33976,37 +33976,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>153.8606640989133</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34131,7 +34131,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663277</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
         <v>699.5441750817577</v>
@@ -34213,28 +34213,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>583.1096135868572</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742439</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162548</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>431.3680753731354</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>355.3309544215487</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378503</v>
       </c>
       <c r="M3" t="n">
-        <v>591.2668520422184</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>640.5848321000389</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.58388860977097</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434848</v>
+        <v>355.3309544215482</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378503</v>
       </c>
       <c r="M6" t="n">
-        <v>622.4553810291982</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N6" t="n">
-        <v>640.5848321000385</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
-        <v>24.58388860977091</v>
+        <v>24.58388860977097</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35485,13 +35485,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754089</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>37.76383318075054</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
         <v>500.3288951674332</v>
@@ -35503,7 +35503,7 @@
         <v>633.9373369238455</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992801</v>
+        <v>407.323644686765</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35643,31 +35643,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902405</v>
@@ -35722,28 +35722,28 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>463.9858252288368</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
         <v>264.332588409635</v>
@@ -35816,7 +35816,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
         <v>373.2618997060455</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,25 +35959,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121313</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396421</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,28 +36196,28 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>110.1905571410441</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992801</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317369</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396422</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367773</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902953</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193523</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243165</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902406</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,25 +36433,25 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678998</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674334</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641942</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238456</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>257.95065951213</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36515,25 +36515,25 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295347</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q25" t="n">
         <v>120.4022572998984</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,16 +36679,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>440.9755796648388</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37150,28 +37150,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>265.4651371077849</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,16 +37390,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,28 +37624,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>8.181160134949316</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37779,7 +37779,7 @@
         <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396415</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
         <v>479.4543240367771</v>
@@ -37861,28 +37861,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>440.9755796648388</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462675</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,25 +38101,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>297.3936679588052</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_14_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_14_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1824778.129044337</v>
+        <v>1826538.659347122</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -664,22 +664,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H2" t="n">
-        <v>16.398809267224</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247044</v>
+        <v>1.782072264242567</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,13 +712,13 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -867,13 +867,13 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>43.30112502764958</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>26.30660220273234</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -901,22 +901,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>155.598535068926</v>
       </c>
       <c r="G5" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>8.704110250542364</v>
+        <v>65.70991267247052</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -952,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1065,10 +1065,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>111.5109739231595</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>50.98074812542793</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>75.4571321610379</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>402.7109894457936</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1232,7 +1232,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1299,19 +1299,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>63.10873435712737</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>71.67037196991754</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>8.57972659686251</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>134.339113733127</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1539,7 +1539,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1587,7 +1587,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.1376433238249</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1767,7 +1767,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>162.7401913819094</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1782,7 +1782,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1821,13 +1821,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>106.9977768135395</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -2007,19 +2007,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>55.5207962406042</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2134,7 +2134,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2244,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>38.61213096654769</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>216.4795114578124</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>117.2708639270857</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2484,10 +2484,10 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2526,7 +2526,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2538,7 +2538,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2718,7 +2718,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2730,10 +2730,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,25 +2760,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>152.0854776630161</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>220.2194287427533</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2955,7 +2955,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>147.6895341487364</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2967,10 +2967,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3006,7 +3006,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3198,16 +3198,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>41.33703994142957</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569541</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3426,13 +3426,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>101.6969570046971</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3441,10 +3441,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3480,13 +3480,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>139.1630968205461</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3720,13 +3720,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>113.6427030833203</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>168.4805514670949</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3915,10 +3915,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>1.79977260571614</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>160.1763464053464</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4140,10 +4140,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4152,10 +4152,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>31.26260713376619</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1329.838061543122</v>
+        <v>1588.713578732508</v>
       </c>
       <c r="C2" t="n">
-        <v>960.8755446027101</v>
+        <v>1219.751061792097</v>
       </c>
       <c r="D2" t="n">
-        <v>960.8755446027101</v>
+        <v>861.4853631853464</v>
       </c>
       <c r="E2" t="n">
-        <v>960.8755446027101</v>
+        <v>475.6971105871021</v>
       </c>
       <c r="F2" t="n">
-        <v>549.8896398131026</v>
+        <v>64.71120579749459</v>
       </c>
       <c r="G2" t="n">
-        <v>134.1848895373914</v>
+        <v>53.04685956218752</v>
       </c>
       <c r="H2" t="n">
-        <v>117.6204357321147</v>
+        <v>53.04685956218752</v>
       </c>
       <c r="I2" t="n">
         <v>51.24678656800311</v>
@@ -4360,22 +4360,22 @@
         <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2437.640120926626</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
-        <v>2437.640120926626</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>2106.577233583055</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="W2" t="n">
-        <v>2106.577233583055</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="X2" t="n">
-        <v>2106.577233583055</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="Y2" t="n">
-        <v>1716.437901607243</v>
+        <v>1975.31341879663</v>
       </c>
     </row>
     <row r="3">
@@ -4385,52 +4385,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182524</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057898</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>590.2049751143493</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L3" t="n">
-        <v>884.9085321458211</v>
+        <v>815.1145481251087</v>
       </c>
       <c r="M3" t="n">
-        <v>1248.170551105041</v>
+        <v>1178.376567084329</v>
       </c>
       <c r="N3" t="n">
-        <v>1635.455679701987</v>
+        <v>1565.661695681274</v>
       </c>
       <c r="O3" t="n">
-        <v>1967.526114878149</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P3" t="n">
-        <v>2214.708848710446</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4442,16 +4442,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4488,7 +4488,7 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312202</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020476</v>
@@ -4497,7 +4497,7 @@
         <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.219460709659</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
@@ -4509,31 +4509,31 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
         <v>1533.86271359008</v>
       </c>
       <c r="S4" t="n">
-        <v>1337.233965749941</v>
+        <v>1490.124203461141</v>
       </c>
       <c r="T4" t="n">
-        <v>1114.255484944676</v>
+        <v>1490.124203461141</v>
       </c>
       <c r="U4" t="n">
-        <v>1087.683159487371</v>
+        <v>1490.124203461141</v>
       </c>
       <c r="V4" t="n">
-        <v>1087.683159487371</v>
+        <v>1490.124203461141</v>
       </c>
       <c r="W4" t="n">
-        <v>1087.683159487371</v>
+        <v>1490.124203461141</v>
       </c>
       <c r="X4" t="n">
-        <v>1087.683159487371</v>
+        <v>1490.124203461141</v>
       </c>
       <c r="Y4" t="n">
-        <v>1087.683159487371</v>
+        <v>1269.331624317611</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1126.761759316041</v>
+        <v>1380.342820051859</v>
       </c>
       <c r="C5" t="n">
-        <v>1126.761759316041</v>
+        <v>1380.342820051859</v>
       </c>
       <c r="D5" t="n">
-        <v>768.496060709291</v>
+        <v>1380.342820051859</v>
       </c>
       <c r="E5" t="n">
-        <v>382.7078081110467</v>
+        <v>994.5545674536152</v>
       </c>
       <c r="F5" t="n">
-        <v>375.7623073618433</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G5" t="n">
-        <v>364.0979611265362</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H5" t="n">
-        <v>60.03881712410652</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362818</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816084</v>
+        <v>442.517185281608</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872906</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230816</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740839</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764996</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.250581723849</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926624</v>
       </c>
       <c r="T5" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926624</v>
       </c>
       <c r="U5" t="n">
-        <v>2184.059060190806</v>
+        <v>2437.640120926624</v>
       </c>
       <c r="V5" t="n">
-        <v>1852.996172847235</v>
+        <v>2106.577233583053</v>
       </c>
       <c r="W5" t="n">
-        <v>1500.227517577121</v>
+        <v>1753.808578312939</v>
       </c>
       <c r="X5" t="n">
-        <v>1126.761759316041</v>
+        <v>1380.342820051859</v>
       </c>
       <c r="Y5" t="n">
-        <v>1126.761759316041</v>
+        <v>1380.342820051859</v>
       </c>
     </row>
     <row r="6">
@@ -4643,25 +4643,25 @@
         <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K6" t="n">
-        <v>590.2049751143488</v>
+        <v>298.3188265310612</v>
       </c>
       <c r="L6" t="n">
-        <v>884.9085321458207</v>
+        <v>593.0223835625327</v>
       </c>
       <c r="M6" t="n">
-        <v>1248.170551105041</v>
+        <v>956.2844025217527</v>
       </c>
       <c r="N6" t="n">
-        <v>1635.455679701986</v>
+        <v>1343.569531118698</v>
       </c>
       <c r="O6" t="n">
-        <v>1967.526114878148</v>
+        <v>1675.63996629486</v>
       </c>
       <c r="P6" t="n">
         <v>2214.708848710445</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>461.9138669598628</v>
+        <v>716.5983551657491</v>
       </c>
       <c r="C7" t="n">
-        <v>461.9138669598628</v>
+        <v>547.6621722378422</v>
       </c>
       <c r="D7" t="n">
-        <v>311.7972275475271</v>
+        <v>397.5455328255065</v>
       </c>
       <c r="E7" t="n">
-        <v>163.884133965134</v>
+        <v>249.6324392431134</v>
       </c>
       <c r="F7" t="n">
-        <v>51.24678656800312</v>
+        <v>102.742491745203</v>
       </c>
       <c r="G7" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312202</v>
+        <v>76.71595955312193</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>824.219460709659</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V7" t="n">
-        <v>1381.761631868611</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W7" t="n">
-        <v>1092.34446183165</v>
+        <v>1347.028950037536</v>
       </c>
       <c r="X7" t="n">
-        <v>864.3549109336327</v>
+        <v>1119.039399139519</v>
       </c>
       <c r="Y7" t="n">
-        <v>643.5623317901026</v>
+        <v>898.2468199959889</v>
       </c>
     </row>
     <row r="8">
@@ -4780,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1295.236214140707</v>
+        <v>1308.370295943748</v>
       </c>
       <c r="C8" t="n">
-        <v>926.2736972002956</v>
+        <v>1308.370295943748</v>
       </c>
       <c r="D8" t="n">
-        <v>926.2736972002956</v>
+        <v>1308.370295943748</v>
       </c>
       <c r="E8" t="n">
-        <v>926.2736972002956</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>515.2877924106881</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
         <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329465</v>
@@ -4822,34 +4822,34 @@
         <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
         <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794326</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450755</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.975386180641</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X8" t="n">
-        <v>2071.975386180641</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y8" t="n">
-        <v>1681.836054204829</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="9">
@@ -4859,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927784</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064586</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
@@ -4889,46 +4889,46 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4938,43 +4938,43 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>752.7622949738584</v>
+        <v>1007.446783179745</v>
       </c>
       <c r="C10" t="n">
-        <v>583.8261120459515</v>
+        <v>838.5106002518381</v>
       </c>
       <c r="D10" t="n">
-        <v>433.7094726336157</v>
+        <v>688.3939608395024</v>
       </c>
       <c r="E10" t="n">
-        <v>285.7963790512226</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F10" t="n">
-        <v>138.9064315533123</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218345</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218345</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4998,16 +4998,16 @@
         <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>1672.610059882606</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="W10" t="n">
-        <v>1383.192889845646</v>
+        <v>1637.877378051532</v>
       </c>
       <c r="X10" t="n">
-        <v>1155.203338947628</v>
+        <v>1409.887827153515</v>
       </c>
       <c r="Y10" t="n">
-        <v>934.4107598040981</v>
+        <v>1189.095248009985</v>
       </c>
     </row>
     <row r="11">
@@ -5035,16 +5035,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5056,19 +5056,19 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474784</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273908</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>95.58405025273908</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>429.5088224239598</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L12" t="n">
-        <v>924.8344286397187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M12" t="n">
-        <v>1522.212916266271</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N12" t="n">
-        <v>2149.810879820878</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>869.6905094135296</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="C13" t="n">
-        <v>700.7543264856228</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D13" t="n">
-        <v>550.637687073287</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908938</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F13" t="n">
         <v>402.7245934908938</v>
@@ -5193,22 +5193,22 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L13" t="n">
         <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570818</v>
@@ -5217,34 +5217,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832664</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2160.315914855605</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1871.240688199803</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1616.556199993919</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1327.139029956958</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>1099.149479058941</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y13" t="n">
-        <v>878.356899915411</v>
+        <v>983.3403484614391</v>
       </c>
     </row>
     <row r="14">
@@ -5260,16 +5260,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
@@ -5278,10 +5278,10 @@
         <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5290,7 +5290,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5354,25 +5354,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516144</v>
+        <v>484.8243144841095</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>980.1499206998682</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348532</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1016.58045691144</v>
+        <v>870.3164745246296</v>
       </c>
       <c r="C16" t="n">
-        <v>847.644273983533</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D16" t="n">
-        <v>697.5276345711973</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888042</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5436,31 +5436,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
         <v>2264.108249235165</v>
@@ -5469,19 +5469,19 @@
         <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>2044.506784258106</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1936.428221820188</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1647.011051783227</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="X16" t="n">
-        <v>1419.02150088521</v>
+        <v>1272.757518498399</v>
       </c>
       <c r="Y16" t="n">
-        <v>1198.22892174168</v>
+        <v>1051.964939354869</v>
       </c>
     </row>
     <row r="17">
@@ -5491,10 +5491,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004712</v>
@@ -5503,22 +5503,22 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5533,7 +5533,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5548,19 +5548,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="20">
@@ -5740,31 +5740,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5773,13 +5773,13 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
         <v>4405.252601474784</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5825,10 +5825,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J21" t="n">
         <v>245.2306927803937</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>803.8641191832229</v>
+        <v>724.7519863413023</v>
       </c>
       <c r="C22" t="n">
-        <v>634.927936255316</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429803</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2407.960931088798</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2407.960931088798</v>
       </c>
       <c r="T22" t="n">
-        <v>1978.396372297858</v>
+        <v>2188.359466111739</v>
       </c>
       <c r="U22" t="n">
-        <v>1978.396372297858</v>
+        <v>1899.284239455937</v>
       </c>
       <c r="V22" t="n">
-        <v>1723.711884091971</v>
+        <v>1644.59975125005</v>
       </c>
       <c r="W22" t="n">
-        <v>1434.29471405501</v>
+        <v>1355.182581213089</v>
       </c>
       <c r="X22" t="n">
-        <v>1206.305163156993</v>
+        <v>1127.193030315072</v>
       </c>
       <c r="Y22" t="n">
-        <v>985.5125840134626</v>
+        <v>906.400451171542</v>
       </c>
     </row>
     <row r="23">
@@ -5977,19 +5977,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
@@ -5998,10 +5998,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.422291068009</v>
@@ -6016,25 +6016,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6062,10 +6062,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J24" t="n">
         <v>245.2306927803937</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>866.4638174991043</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>697.5276345711974</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D25" t="n">
-        <v>697.5276345711974</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E25" t="n">
-        <v>549.6145409888043</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6174,25 +6174,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1433.701365648819</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>1205.711814750802</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>984.9192356072716</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6202,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
@@ -6253,25 +6253,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6299,10 +6299,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
         <v>245.2306927803937</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>874.8686257536381</v>
+        <v>948.5505208511905</v>
       </c>
       <c r="C28" t="n">
-        <v>705.9324428257312</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="D28" t="n">
-        <v>555.8158034133954</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9027098310023</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T28" t="n">
-        <v>2110.486554626058</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U28" t="n">
-        <v>1821.411327970255</v>
+        <v>2090.842153176861</v>
       </c>
       <c r="V28" t="n">
-        <v>1566.726839764368</v>
+        <v>1868.398285759938</v>
       </c>
       <c r="W28" t="n">
-        <v>1277.309669727408</v>
+        <v>1578.981115722978</v>
       </c>
       <c r="X28" t="n">
-        <v>1277.309669727408</v>
+        <v>1350.99156482496</v>
       </c>
       <c r="Y28" t="n">
-        <v>1056.517090583878</v>
+        <v>1130.19898568143</v>
       </c>
     </row>
     <row r="29">
@@ -6451,25 +6451,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
         <v>2206.558663014779</v>
@@ -6478,7 +6478,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>802.9288273958734</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>633.9926444679666</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6654,19 +6654,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1205.369871369643</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>984.5772922261132</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6931,19 +6931,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014778</v>
@@ -6952,7 +6952,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7010,10 +7010,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
         <v>245.2306927803937</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>951.7772127656159</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>782.841029837709</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D37" t="n">
-        <v>632.7243904253733</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7128,19 +7128,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1582.207807637403</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1354.218256739386</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1133.425677595856</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7250,22 +7250,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7368,16 +7368,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="41">
@@ -7402,22 +7402,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
         <v>2206.558663014778</v>
@@ -7426,7 +7426,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7487,22 +7487,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7639,19 +7639,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7724,13 +7724,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>951.7772127656159</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>782.841029837709</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2415.384692536053</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>2126.309465880251</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1871.624977674364</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
   </sheetData>
@@ -8057,13 +8057,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>168.7434581780637</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>224.3355197601774</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8072,16 +8072,16 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>305.1601501039158</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>168.7434581780633</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8312,7 +8312,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>294.8344935184736</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>171.2522535850748</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>32.90770736550078</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23427,7 +23427,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23655,7 +23655,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>4.506629716718408</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23709,13 +23709,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>145.1398665102885</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23895,19 +23895,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>125.5054897610404</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>27.763115743574</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0.925938869475857</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>62.56111625485163</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24372,10 +24372,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24414,7 +24414,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24426,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24606,7 +24606,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,25 +24648,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>65.31997266427217</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>31.91821458107469</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24843,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0.9259388694759139</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24894,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25086,16 +25086,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>104.0840080815017</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25314,13 +25314,13 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>44.73700564187209</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25368,13 +25368,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>147.3599015160449</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25608,13 +25608,13 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>57.22910392194225</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25839,7 +25839,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>57.22910392194191</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26028,10 +26028,10 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>186.1428431935221</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>876221.8101769292</v>
+        <v>876221.8101769291</v>
       </c>
     </row>
     <row r="6">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>876221.8101769291</v>
+        <v>876221.8101769292</v>
       </c>
     </row>
   </sheetData>
@@ -26313,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554203.1946583915</v>
+        <v>554203.1946583914</v>
       </c>
       <c r="C2" t="n">
-        <v>554203.1946583912</v>
+        <v>554203.1946583913</v>
       </c>
       <c r="D2" t="n">
         <v>554203.1946583915</v>
@@ -26325,37 +26325,37 @@
         <v>544823.954790754</v>
       </c>
       <c r="F2" t="n">
-        <v>544823.9547907542</v>
+        <v>544823.9547907539</v>
       </c>
       <c r="G2" t="n">
-        <v>544823.9547907538</v>
+        <v>544823.9547907539</v>
       </c>
       <c r="H2" t="n">
-        <v>544823.9547907539</v>
+        <v>544823.9547907541</v>
       </c>
       <c r="I2" t="n">
-        <v>544823.9547907538</v>
+        <v>544823.9547907541</v>
       </c>
       <c r="J2" t="n">
         <v>544823.9547907541</v>
       </c>
       <c r="K2" t="n">
-        <v>544823.954790754</v>
+        <v>544823.9547907537</v>
       </c>
       <c r="L2" t="n">
+        <v>544823.9547907539</v>
+      </c>
+      <c r="M2" t="n">
         <v>544823.9547907538</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>544823.9547907542</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>544823.9547907539</v>
       </c>
-      <c r="O2" t="n">
-        <v>544823.9547907544</v>
-      </c>
       <c r="P2" t="n">
-        <v>544823.9547907538</v>
+        <v>544823.9547907539</v>
       </c>
     </row>
     <row r="3">
@@ -26371,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403379</v>
+        <v>192627.1404403382</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26395,7 +26395,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.9700081908</v>
+        <v>48293.97000819086</v>
       </c>
       <c r="M3" t="n">
         <v>85055.02793551172</v>
@@ -26404,10 +26404,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.540129233035259e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.513344614068046e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26420,16 +26420,16 @@
         <v>136726.2736921025</v>
       </c>
       <c r="C4" t="n">
-        <v>136726.2736921025</v>
+        <v>136726.2736921026</v>
       </c>
       <c r="D4" t="n">
-        <v>88524.2351281078</v>
+        <v>88524.23512810786</v>
       </c>
       <c r="E4" t="n">
         <v>9337.200356756592</v>
       </c>
       <c r="F4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="G4" t="n">
         <v>9337.20035675659</v>
@@ -26450,13 +26450,13 @@
         <v>9337.20035675659</v>
       </c>
       <c r="M4" t="n">
-        <v>9337.200356756644</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="N4" t="n">
         <v>9337.20035675659</v>
       </c>
       <c r="O4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="P4" t="n">
         <v>9337.20035675659</v>
@@ -26469,10 +26469,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.77243984469</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-790212.6350494756</v>
+        <v>-790212.6350494757</v>
       </c>
       <c r="C6" t="n">
-        <v>324539.148526444</v>
+        <v>324539.1485264444</v>
       </c>
       <c r="D6" t="n">
-        <v>165117.8785285524</v>
+        <v>165117.8785285522</v>
       </c>
       <c r="E6" t="n">
-        <v>108604.3835483781</v>
+        <v>108917.0248772994</v>
       </c>
       <c r="F6" t="n">
-        <v>434016.8453557338</v>
+        <v>434329.4866846547</v>
       </c>
       <c r="G6" t="n">
-        <v>434016.8453557334</v>
+        <v>434329.4866846545</v>
       </c>
       <c r="H6" t="n">
-        <v>434016.8453557332</v>
+        <v>434329.4866846548</v>
       </c>
       <c r="I6" t="n">
-        <v>434016.8453557331</v>
+        <v>434329.4866846548</v>
       </c>
       <c r="J6" t="n">
-        <v>266411.6675457509</v>
+        <v>266724.3088746722</v>
       </c>
       <c r="K6" t="n">
-        <v>434016.8453557334</v>
+        <v>434329.4866846543</v>
       </c>
       <c r="L6" t="n">
-        <v>385722.8753475423</v>
+        <v>386035.5166764637</v>
       </c>
       <c r="M6" t="n">
-        <v>348961.8174202219</v>
+        <v>349274.4587491427</v>
       </c>
       <c r="N6" t="n">
-        <v>434016.8453557332</v>
+        <v>434329.4866846548</v>
       </c>
       <c r="O6" t="n">
-        <v>434016.8453557336</v>
+        <v>434329.4866846545</v>
       </c>
       <c r="P6" t="n">
-        <v>434016.8453557332</v>
+        <v>434329.4866846544</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.064892117539</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26792,13 +26792,13 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000385</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26959,13 +26959,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.7118084757591</v>
+        <v>155.7118084757593</v>
       </c>
       <c r="E3" t="n">
         <v>278.1987997483757</v>
@@ -26998,10 +26998,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27017,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022541</v>
+        <v>190.8166233022544</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,13 +27035,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.584832100039</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022541</v>
+        <v>190.8166233022544</v>
       </c>
       <c r="M4" t="n">
         <v>341.3068326973553</v>
@@ -27263,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022541</v>
+        <v>190.8166233022544</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,22 +27384,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>284.6197432951814</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>63.9278404082279</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,13 +27432,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27587,13 +27587,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>151.3613353340879</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>259.9205519184683</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27621,22 +27621,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>251.2775106727854</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>57.00580242192807</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27672,7 +27672,7 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27776,7 +27776,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27785,13 +27785,13 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>33.91007409977171</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>115.3258519193762</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27833,7 +27833,7 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27852,25 +27852,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>306.4732379112239</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>8.210736207659806</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27918,7 +27918,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28019,19 +28019,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>83.3252282894418</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>94.35543628911068</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28070,7 +28070,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28140,7 +28140,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>-9.379164112033322e-13</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -28307,7 +28307,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>3.110756097157719e-12</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -30036,7 +30036,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -31047,28 +31047,28 @@
         <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
-        <v>144.7659768979355</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857144</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
         <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730006</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342226</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
         <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190646</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
         <v>405.5015080147052</v>
@@ -31083,7 +31083,7 @@
         <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3004027793744848</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,7 +31120,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.009120711347161</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
         <v>19.40387634380021</v>
@@ -31132,10 +31132,10 @@
         <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>324.4289352178439</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177245</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
         <v>509.0653662040589</v>
@@ -31144,7 +31144,7 @@
         <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405676</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
         <v>383.6539365378626</v>
@@ -31156,10 +31156,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997903</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000174</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
         <v>0.1321789941675764</v>
@@ -31205,19 +31205,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335773</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>195.694251168232</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L4" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>264.0341136849628</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
         <v>257.7559726067959</v>
@@ -31232,16 +31232,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759588</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069563</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024988</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336177</v>
       </c>
       <c r="I5" t="n">
-        <v>144.7659768979355</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857144</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730006</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342226</v>
+        <v>670.0202366342222</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190646</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745095</v>
       </c>
       <c r="T5" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744848</v>
+        <v>0.3004027793744846</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.009120711347161</v>
+        <v>2.009120711347159</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178439</v>
+        <v>324.4289352178437</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177245</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040587</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762073</v>
+        <v>522.538811676207</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405676</v>
+        <v>478.0209264405673</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378624</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997903</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000174</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,31 +31436,31 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.684379313654579</v>
+        <v>1.684379313654578</v>
       </c>
       <c r="H7" t="n">
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335773</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>195.694251168232</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L7" t="n">
-        <v>250.4212663227908</v>
+        <v>250.4212663227907</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849628</v>
+        <v>264.0341136849626</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31469,16 +31469,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759588</v>
+        <v>75.73581895759584</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069563</v>
+        <v>7.19689343106956</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024988</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31524,40 +31524,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31676,43 +31676,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31752,40 +31752,40 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
         <v>125.3175546292901</v>
@@ -31794,7 +31794,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31840,34 +31840,34 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422587</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473074</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862124</v>
+        <v>581.3243739860823</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>549.9198891312094</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
@@ -31910,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796262</v>
@@ -31934,7 +31934,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
@@ -32080,22 +32080,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>379.8551982710416</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32967,10 +32967,10 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S26" t="n">
         <v>125.31755462929</v>
@@ -33207,7 +33207,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S29" t="n">
         <v>125.31755462929</v>
@@ -33970,7 +33970,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33988,7 +33988,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,31 +34201,31 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,16 +34450,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
         <v>398.7616643558013</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34701,28 +34701,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407339</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
         <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457279</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376316</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
         <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637951</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.2916633093991</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,13 +34777,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
-        <v>355.3309544215487</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378503</v>
+        <v>522.0158803980277</v>
       </c>
       <c r="M3" t="n">
         <v>366.9313322820406</v>
@@ -34792,16 +34792,16 @@
         <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>335.4246819961231</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="P3" t="n">
         <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977097</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,7 +34856,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870597</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
@@ -34865,7 +34865,7 @@
         <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
-        <v>303.6179906468034</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
         <v>301.8881449860245</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407339</v>
+        <v>257.5646495407336</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457279</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376316</v>
+        <v>440.6071730376313</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637951</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>20.2916633093991</v>
+        <v>20.29166330939898</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091737</v>
       </c>
       <c r="K6" t="n">
-        <v>355.3309544215482</v>
+        <v>186.5874962434847</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378503</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928738</v>
       </c>
       <c r="O6" t="n">
-        <v>335.4246819961231</v>
+        <v>335.4246819961229</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235323</v>
+        <v>544.5140226420058</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667037</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R6" t="n">
-        <v>24.58388860977097</v>
+        <v>24.5838886097709</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870597</v>
+        <v>25.72643735870591</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468034</v>
+        <v>303.6179906468032</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
-        <v>200.9965809818072</v>
+        <v>200.9965809818071</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902405</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678997</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674332</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>603.412613764194</v>
+        <v>439.190340064064</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>407.323644686765</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
         <v>264.332588409635</v>
@@ -35579,7 +35579,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
         <v>373.2618997060455</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,28 +35722,28 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>242.0137592966826</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35883,7 +35883,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K17" t="n">
         <v>479.454324036777</v>
@@ -36120,7 +36120,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
         <v>479.454324036777</v>
@@ -36381,7 +36381,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36615,10 +36615,10 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36855,7 +36855,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37636,7 +37636,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,16 +37864,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,13 +38101,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
         <v>256.1654199113569</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
